--- a/biology/Zoologie/Indophantes_agamus/Indophantes_agamus.xlsx
+++ b/biology/Zoologie/Indophantes_agamus/Indophantes_agamus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indophantes agamus est une espèce d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indophantes agamus est une espèce d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Népal[1]. Elle se rencontre dans les districts de Panchthar et de Taplejung entre 2 300 et 2 600 m d'altitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Népal. Elle se rencontre dans les districts de Panchthar et de Taplejung entre 2 300 et 2 600 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 1,85 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 1,85 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tanasevitch &amp; Saaristo, 2006 : Reassessment of the Nepalese species of the genus Lepthyphantes Menge s. l. with descriptions of new Micronetinae genera and species (Araneae, Linyphiidae, Micronetinae). Senckenbergiana biologica, vol. 86, no 1, p. 11-38.</t>
         </is>
